--- a/structures/structure.xlsx
+++ b/structures/structure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.behrens\work\SEDOS\data_adapter_fine\structures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.behrens\work\SEDOS\deploy_test\data_adapter_fine\structures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0EA4AF-CA9F-4896-A132-2BF48FD1D749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E94C183-8207-420A-98E4-67FA0830F101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sys_mcar" sheetId="12" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="201">
   <si>
     <t>input</t>
   </si>
@@ -220,9 +220,6 @@
   </si>
   <si>
     <t>x2x_p2gas_methanation_1_ag</t>
-  </si>
-  <si>
-    <t>x2x_g2p_h2_fuel_cell_1_ag</t>
   </si>
   <si>
     <t>sec_syngas_sr</t>
@@ -821,15 +818,7 @@
     <cellStyle name="Standard 3 2" xfId="4" xr:uid="{DC346865-3D7E-4B46-BB2A-8FC4D7CA9D11}"/>
     <cellStyle name="Standard 4" xfId="6" xr:uid="{004F2372-D8A6-424C-A79A-B1970E61E9F1}"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <b/>
-        <name val="Arial"/>
-        <charset val="1"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b/>
@@ -1139,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0D15FF-87AE-4E83-8255-A3687ED53488}">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,90 +1154,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1256,18 +1245,18 @@
         <v>11</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>11</v>
@@ -1278,10 +1267,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1289,10 +1278,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1300,10 +1289,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1311,10 +1300,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1322,76 +1311,76 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1399,10 +1388,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1410,54 +1399,54 @@
         <v>10</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1465,10 +1454,10 @@
         <v>13</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1476,43 +1465,43 @@
         <v>13</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -1520,18 +1509,18 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>10</v>
@@ -1539,43 +1528,43 @@
     </row>
     <row r="36" spans="1:3" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>13</v>
@@ -1583,10 +1572,10 @@
     </row>
     <row r="40" spans="1:3" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>13</v>
@@ -1594,21 +1583,21 @@
     </row>
     <row r="41" spans="1:3" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:3" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>9</v>
@@ -1616,21 +1605,21 @@
     </row>
     <row r="43" spans="1:3" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>6</v>
@@ -1641,236 +1630,236 @@
         <v>34</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="47" spans="1:3" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:3" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
+      <c r="A59" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="B59" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>13</v>
@@ -1878,112 +1867,112 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>70</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1991,54 +1980,43 @@
         <v>37</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
-      <c r="B83" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C1" xr:uid="{3C0D15FF-87AE-4E83-8255-A3687ED53488}">
@@ -2046,23 +2024,18 @@
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A1:B1">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+  <conditionalFormatting sqref="A1:B1 D34:XFD52">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B31">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B85:B1048576 B1">
-    <cfRule type="duplicateValues" dxfId="2" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:XFD53">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
+  <conditionalFormatting sqref="B84:B1048576 B1">
+    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2097,84 +2070,84 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>34</v>
@@ -2182,13 +2155,13 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>178</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2196,7 +2169,7 @@
         <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>37</v>
@@ -2207,7 +2180,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
@@ -2215,43 +2188,43 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
@@ -2274,7 +2247,7 @@
   </sheetPr>
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight"/>
@@ -2300,27 +2273,27 @@
         <v>3</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>198</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>50</v>
@@ -2344,13 +2317,13 @@
     </row>
     <row r="3" spans="1:18" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>197</v>
-      </c>
       <c r="C3" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>52</v>
@@ -2374,13 +2347,13 @@
     </row>
     <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>198</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>52</v>
@@ -2404,13 +2377,13 @@
     </row>
     <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>197</v>
-      </c>
       <c r="C5" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>54</v>
@@ -2434,13 +2407,13 @@
     </row>
     <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>198</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>54</v>
@@ -2464,16 +2437,16 @@
     </row>
     <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>197</v>
-      </c>
       <c r="C7" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>11</v>
@@ -2494,16 +2467,16 @@
     </row>
     <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>199</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>11</v>
@@ -2524,13 +2497,13 @@
     </row>
     <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>197</v>
-      </c>
       <c r="C9" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>38</v>
@@ -2554,13 +2527,13 @@
     </row>
     <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>198</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>38</v>
@@ -2584,13 +2557,13 @@
     </row>
     <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>197</v>
-      </c>
       <c r="C11" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>40</v>
@@ -2614,13 +2587,13 @@
     </row>
     <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>198</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>40</v>
@@ -2644,13 +2617,13 @@
     </row>
     <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>197</v>
-      </c>
       <c r="C13" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>42</v>
@@ -2674,13 +2647,13 @@
     </row>
     <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>198</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>42</v>
@@ -2704,13 +2677,13 @@
     </row>
     <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>197</v>
-      </c>
       <c r="C15" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>14</v>
@@ -2734,19 +2707,19 @@
     </row>
     <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -2764,19 +2737,19 @@
     </row>
     <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -2794,19 +2767,19 @@
     </row>
     <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -2824,19 +2797,19 @@
     </row>
     <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -2854,19 +2827,19 @@
     </row>
     <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -2884,19 +2857,19 @@
     </row>
     <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -2914,19 +2887,19 @@
     </row>
     <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -2944,19 +2917,19 @@
     </row>
     <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -2974,19 +2947,19 @@
     </row>
     <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -3004,19 +2977,19 @@
     </row>
     <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -3034,19 +3007,19 @@
     </row>
     <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -3064,19 +3037,19 @@
     </row>
     <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -3094,19 +3067,19 @@
     </row>
     <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="E28" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -3124,19 +3097,19 @@
     </row>
     <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>116</v>
-      </c>
       <c r="E29" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -3154,19 +3127,19 @@
     </row>
     <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
@@ -3184,19 +3157,19 @@
     </row>
     <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
@@ -3214,16 +3187,16 @@
     </row>
     <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>11</v>
@@ -3244,16 +3217,16 @@
     </row>
     <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>11</v>
@@ -3274,16 +3247,16 @@
     </row>
     <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>11</v>
@@ -3304,19 +3277,19 @@
     </row>
     <row r="35" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
